--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_65_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_65_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.8120181576332772, 4.302369469175472]</t>
+          <t>[3.810388261794344, 4.3039993650144055]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.45147905372640906, 0.7771956772664659]</t>
+          <t>[0.45126527962136054, 0.7774094513715144]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1.33594757478761e-09</v>
+        <v>1.381717629200807e-09</v>
       </c>
       <c r="V2" t="n">
-        <v>1.33594757478761e-09</v>
+        <v>1.381717629200807e-09</v>
       </c>
       <c r="W2" t="n">
         <v>12.78218218218265</v>
